--- a/InputForAssessment.xlsx
+++ b/InputForAssessment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="100" windowWidth="25360" windowHeight="14340" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6480" yWindow="0" windowWidth="25360" windowHeight="14400" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROSE" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="5">
   <si>
     <t>Partitions</t>
   </si>
@@ -128,8 +128,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,9 +232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -229,15 +246,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -247,8 +258,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -285,6 +305,16 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +351,16 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,7 +693,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E18"/>
+      <selection activeCell="G1" sqref="G1:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -663,27 +703,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10">
         <v>4</v>
       </c>
     </row>
@@ -691,6 +752,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -709,10 +773,24 @@
         <v>119</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>117</v>
+      </c>
+      <c r="I4" s="2">
+        <v>128</v>
+      </c>
+      <c r="J4" s="2">
+        <v>141</v>
+      </c>
+      <c r="K4" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="2">
@@ -728,12 +806,26 @@
         <v>235</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>215</v>
+      </c>
+      <c r="I5" s="2">
+        <v>243</v>
+      </c>
+      <c r="J5" s="2">
+        <v>295</v>
+      </c>
+      <c r="K5" s="2">
+        <v>247</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -749,10 +841,24 @@
         <v>346</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>338</v>
+      </c>
+      <c r="I6" s="2">
+        <v>351</v>
+      </c>
+      <c r="J6" s="2">
+        <v>474</v>
+      </c>
+      <c r="K6" s="2">
+        <v>337</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="2">
@@ -768,12 +874,26 @@
         <v>470</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>445</v>
+      </c>
+      <c r="I7" s="2">
+        <v>453</v>
+      </c>
+      <c r="J7" s="2">
+        <v>627</v>
+      </c>
+      <c r="K7" s="2">
+        <v>475</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="2">
@@ -789,10 +909,24 @@
         <v>585</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>559</v>
+      </c>
+      <c r="I8" s="2">
+        <v>576</v>
+      </c>
+      <c r="J8" s="2">
+        <v>776</v>
+      </c>
+      <c r="K8" s="2">
+        <v>589</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -808,38 +942,80 @@
         <v>684</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="8">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>682</v>
+      </c>
+      <c r="I9" s="2">
+        <v>628</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1034</v>
+      </c>
+      <c r="K9" s="2">
+        <v>656</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="8">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>805</v>
+      </c>
+      <c r="I10">
+        <v>680</v>
+      </c>
+      <c r="J10">
+        <v>1291</v>
+      </c>
+      <c r="K10">
+        <v>724</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10">
         <v>4</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="8">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>928</v>
+      </c>
+      <c r="I11">
+        <v>732</v>
+      </c>
+      <c r="J11">
+        <v>1549</v>
+      </c>
+      <c r="K11">
+        <v>791</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -849,7 +1025,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="8">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>1051</v>
+      </c>
+      <c r="I12">
+        <v>784</v>
+      </c>
+      <c r="J12">
+        <v>1807</v>
+      </c>
+      <c r="K12">
+        <v>858</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -871,13 +1061,27 @@
         <v>0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1174</v>
+      </c>
+      <c r="I13">
+        <v>836</v>
+      </c>
+      <c r="J13">
+        <v>2065</v>
+      </c>
+      <c r="K13">
+        <v>925</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
       <c r="B14" s="2">
@@ -893,7 +1097,6 @@
         <v>0</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -901,7 +1104,7 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>3</v>
       </c>
       <c r="B15" s="2">
@@ -917,14 +1120,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="H15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="2">
@@ -940,14 +1148,28 @@
         <v>0</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>3</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>5</v>
       </c>
       <c r="B17" s="2">
@@ -963,14 +1185,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="2">
@@ -986,7 +1210,21 @@
         <v>0</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>37</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -995,8 +1233,21 @@
     <row r="19" spans="1:16">
       <c r="C19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2">
+        <v>45</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1008,8 +1259,21 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2">
+        <v>46</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1022,7 +1286,21 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2">
+        <v>64</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1034,8 +1312,21 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2">
+        <v>14</v>
+      </c>
+      <c r="J22" s="2">
+        <v>79</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1047,15 +1338,42 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>11</v>
+      </c>
+      <c r="I23" s="2">
+        <v>17</v>
+      </c>
+      <c r="J23" s="7">
+        <v>147</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="G24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="8">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>156</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1068,7 +1386,21 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>176</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1080,7 +1412,21 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="8">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>210</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1092,7 +1438,21 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="8">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>210</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1104,7 +1464,6 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1113,7 +1472,6 @@
     <row r="29" spans="1:16">
       <c r="C29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1135,9 +1493,11 @@
       <c r="C34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1153,47 +1513,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="13.6640625" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="3"/>
-      <c r="B1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1"/>
+      <c r="I1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21">
-        <v>3</v>
-      </c>
-      <c r="E2" s="21">
-        <v>4</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18">
         <v>5</v>
       </c>
-      <c r="W2" s="22"/>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>3</v>
+      </c>
+      <c r="L2" s="10">
+        <v>4</v>
+      </c>
+      <c r="M2" s="19">
+        <v>5</v>
+      </c>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -1202,9 +1589,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -1223,10 +1617,27 @@
         <v>99</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2">
+        <v>115</v>
+      </c>
+      <c r="K4" s="2">
+        <v>114</v>
+      </c>
+      <c r="L4" s="2">
+        <v>87</v>
+      </c>
+      <c r="M4" s="14">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -1245,9 +1656,27 @@
         <v>119</v>
       </c>
       <c r="G5" s="3"/>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>132</v>
+      </c>
+      <c r="J5" s="2">
+        <v>268</v>
+      </c>
+      <c r="K5" s="2">
+        <v>352</v>
+      </c>
+      <c r="L5" s="2">
+        <v>119</v>
+      </c>
+      <c r="M5" s="14">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="3">
@@ -1266,10 +1695,27 @@
         <v>134</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>197</v>
+      </c>
+      <c r="J6" s="2">
+        <v>424</v>
+      </c>
+      <c r="K6" s="2">
+        <v>609</v>
+      </c>
+      <c r="L6" s="2">
+        <v>135</v>
+      </c>
+      <c r="M6" s="14">
+        <v>135</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
       <c r="B7" s="3">
@@ -1288,9 +1734,27 @@
         <v>156</v>
       </c>
       <c r="G7" s="3"/>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>242</v>
+      </c>
+      <c r="J7" s="2">
+        <v>576</v>
+      </c>
+      <c r="K7" s="2">
+        <v>855</v>
+      </c>
+      <c r="L7" s="2">
+        <v>169</v>
+      </c>
+      <c r="M7" s="14">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="3">
@@ -1308,10 +1772,28 @@
       <c r="F8" s="3">
         <v>188</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="9">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>290</v>
+      </c>
+      <c r="J8" s="2">
+        <v>725</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1110</v>
+      </c>
+      <c r="L8" s="2">
+        <v>196</v>
+      </c>
+      <c r="M8" s="14">
+        <v>179</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="23">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
       <c r="B9" s="3">
@@ -1329,44 +1811,96 @@
       <c r="F9" s="3">
         <v>214</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="8">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>346</v>
+      </c>
+      <c r="J9" s="2">
+        <v>868</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L9" s="2">
+        <v>233</v>
+      </c>
+      <c r="M9" s="14">
+        <v>229</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3"/>
-      <c r="B10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="3"/>
+      <c r="H10" s="8">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>406</v>
+      </c>
+      <c r="J10">
+        <v>1061</v>
+      </c>
+      <c r="K10">
+        <v>1526</v>
+      </c>
+      <c r="L10">
+        <v>265</v>
+      </c>
+      <c r="M10" s="14">
+        <v>242</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21">
-        <v>2</v>
-      </c>
-      <c r="D11" s="21">
-        <v>3</v>
-      </c>
-      <c r="E11" s="21">
-        <v>4</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18">
         <v>5</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="8">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>467</v>
+      </c>
+      <c r="J11">
+        <v>1195</v>
+      </c>
+      <c r="K11">
+        <v>1781</v>
+      </c>
+      <c r="L11">
+        <v>301</v>
+      </c>
+      <c r="M11" s="14">
+        <v>256</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="3"/>
@@ -1375,9 +1909,27 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
+      <c r="H12" s="8">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>540</v>
+      </c>
+      <c r="J12">
+        <v>1378</v>
+      </c>
+      <c r="K12">
+        <v>1978</v>
+      </c>
+      <c r="L12">
+        <v>336</v>
+      </c>
+      <c r="M12" s="14">
+        <v>268</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3">
@@ -1396,10 +1948,27 @@
         <v>28</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>619</v>
+      </c>
+      <c r="J13">
+        <v>1441</v>
+      </c>
+      <c r="K13">
+        <v>2067</v>
+      </c>
+      <c r="L13">
+        <v>471</v>
+      </c>
+      <c r="M13" s="14">
+        <v>402</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
       <c r="B14" s="3">
@@ -1418,9 +1987,14 @@
         <v>31</v>
       </c>
       <c r="G14" s="3"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="3">
@@ -1438,9 +2012,16 @@
       <c r="F15" s="3">
         <v>39</v>
       </c>
+      <c r="H15"/>
+      <c r="I15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="3">
@@ -1459,9 +2040,27 @@
         <v>46</v>
       </c>
       <c r="G16" s="3"/>
+      <c r="H16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>3</v>
+      </c>
+      <c r="L16" s="10">
+        <v>4</v>
+      </c>
+      <c r="M16" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="3">
@@ -1480,16 +2079,20 @@
         <v>53</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
       <c r="B18" s="3">
@@ -1508,10 +2111,24 @@
         <v>59</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3">
+        <v>34</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1524,10 +2141,24 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="H19" s="8">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2">
+        <v>18</v>
+      </c>
+      <c r="K19" s="2">
+        <v>28</v>
+      </c>
+      <c r="L19" s="2">
+        <v>25</v>
+      </c>
+      <c r="M19" s="3">
+        <v>57</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1540,10 +2171,24 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="H20" s="8">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2">
+        <v>35</v>
+      </c>
+      <c r="L20" s="2">
+        <v>28</v>
+      </c>
+      <c r="M20" s="3">
+        <v>63</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1555,10 +2200,24 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>26</v>
+      </c>
+      <c r="J21" s="2">
+        <v>60</v>
+      </c>
+      <c r="K21" s="2">
+        <v>48</v>
+      </c>
+      <c r="L21" s="2">
+        <v>40</v>
+      </c>
+      <c r="M21" s="3">
+        <v>86</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1571,10 +2230,24 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2">
+        <v>80</v>
+      </c>
+      <c r="K22" s="2">
+        <v>61</v>
+      </c>
+      <c r="L22" s="2">
+        <v>46</v>
+      </c>
+      <c r="M22" s="3">
+        <v>104</v>
+      </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:16">
@@ -1585,6 +2258,24 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
+      <c r="H23" s="8">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" s="2">
+        <v>83</v>
+      </c>
+      <c r="K23" s="7">
+        <v>61</v>
+      </c>
+      <c r="L23" s="7">
+        <v>46</v>
+      </c>
+      <c r="M23" s="14">
+        <v>104</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3"/>
@@ -1594,10 +2285,24 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="H24" s="8">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>41</v>
+      </c>
+      <c r="J24">
+        <v>97</v>
+      </c>
+      <c r="K24">
+        <v>69</v>
+      </c>
+      <c r="L24">
+        <v>78</v>
+      </c>
+      <c r="M24" s="3">
+        <v>105</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:16">
@@ -1608,10 +2313,24 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="H25" s="8">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>105</v>
+      </c>
+      <c r="K25">
+        <v>75</v>
+      </c>
+      <c r="L25">
+        <v>90</v>
+      </c>
+      <c r="M25" s="3">
+        <v>109</v>
+      </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:16">
@@ -1622,10 +2341,24 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="H26" s="8">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <v>105</v>
+      </c>
+      <c r="K26">
+        <v>78</v>
+      </c>
+      <c r="L26">
+        <v>103</v>
+      </c>
+      <c r="M26" s="3">
+        <v>112</v>
+      </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:16">
@@ -1635,10 +2368,24 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="H27" s="8">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>51</v>
+      </c>
+      <c r="J27">
+        <v>113</v>
+      </c>
+      <c r="K27">
+        <v>91</v>
+      </c>
+      <c r="L27">
+        <v>107</v>
+      </c>
+      <c r="M27" s="3">
+        <v>125</v>
+      </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:16">
@@ -1702,9 +2449,11 @@
       <c r="G32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1721,38 +2470,59 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E18"/>
+      <selection activeCell="H18" sqref="H18:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="2"/>
+      <c r="H1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14">
-        <v>3</v>
-      </c>
-      <c r="E2" s="14">
-        <v>4</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
@@ -1763,18 +2533,16 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7">
@@ -1790,18 +2558,28 @@
         <v>124</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>127</v>
+      </c>
+      <c r="I4" s="2">
+        <v>119</v>
+      </c>
+      <c r="J4" s="2">
+        <v>128</v>
+      </c>
+      <c r="K4" s="2">
+        <v>126</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="7">
@@ -1817,18 +2595,28 @@
         <v>304</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>206</v>
+      </c>
+      <c r="I5" s="2">
+        <v>230</v>
+      </c>
+      <c r="J5" s="2">
+        <v>240</v>
+      </c>
+      <c r="K5" s="2">
+        <v>324</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="7">
@@ -1844,18 +2632,28 @@
         <v>476</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>309</v>
+      </c>
+      <c r="I6" s="2">
+        <v>355</v>
+      </c>
+      <c r="J6" s="2">
+        <v>363</v>
+      </c>
+      <c r="K6" s="2">
+        <v>473</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
       <c r="B7" s="7">
@@ -1871,18 +2669,28 @@
         <v>670</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>415</v>
+      </c>
+      <c r="I7" s="2">
+        <v>443</v>
+      </c>
+      <c r="J7" s="2">
+        <v>480</v>
+      </c>
+      <c r="K7" s="2">
+        <v>662</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="7">
@@ -1898,18 +2706,28 @@
         <v>842</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>486</v>
+      </c>
+      <c r="I8" s="2">
+        <v>566</v>
+      </c>
+      <c r="J8" s="2">
+        <v>605</v>
+      </c>
+      <c r="K8" s="2">
+        <v>843</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="23">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
       <c r="B9" s="7">
@@ -1925,11 +2743,21 @@
         <v>1024</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="G9" s="8">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>587</v>
+      </c>
+      <c r="I9" s="2">
+        <v>685</v>
+      </c>
+      <c r="J9" s="2">
+        <v>771</v>
+      </c>
+      <c r="K9" s="2">
+        <v>957</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1942,11 +2770,21 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="G10" s="8">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>689</v>
+      </c>
+      <c r="I10">
+        <v>803</v>
+      </c>
+      <c r="J10">
+        <v>936</v>
+      </c>
+      <c r="K10">
+        <v>1072</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1954,52 +2792,72 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2"/>
-      <c r="B11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="G11" s="8">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>790</v>
+      </c>
+      <c r="I11">
+        <v>922</v>
+      </c>
+      <c r="J11">
+        <v>1102</v>
+      </c>
+      <c r="K11">
+        <v>1186</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>3</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
         <v>4</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="G12" s="8">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>891</v>
+      </c>
+      <c r="I12">
+        <v>1041</v>
+      </c>
+      <c r="J12">
+        <v>1267</v>
+      </c>
+      <c r="K12">
+        <v>1301</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="7">
@@ -2015,18 +2873,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>993</v>
+      </c>
+      <c r="I13">
+        <v>1159</v>
+      </c>
+      <c r="J13">
+        <v>1433</v>
+      </c>
+      <c r="K13">
+        <v>1415</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
       <c r="B14" s="7">
@@ -2042,18 +2910,13 @@
         <v>24</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="7">
@@ -2069,18 +2932,19 @@
         <v>38</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="7">
@@ -2096,18 +2960,28 @@
         <v>52</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="G16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>3</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="7">
@@ -2123,18 +2997,16 @@
         <v>63</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
       <c r="B18" s="7">
@@ -2150,11 +3022,21 @@
         <v>80</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>8</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -2166,11 +3048,21 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
+        <v>26</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -2182,11 +3074,21 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>38</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -2198,11 +3100,21 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="G21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>33</v>
+      </c>
+      <c r="I21" s="2">
+        <v>43</v>
+      </c>
+      <c r="J21" s="2">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2">
+        <v>53</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -2214,11 +3126,21 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2">
+        <v>54</v>
+      </c>
+      <c r="J22" s="2">
+        <v>48</v>
+      </c>
+      <c r="K22" s="2">
+        <v>63</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -2230,11 +3152,21 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2">
+        <v>64</v>
+      </c>
+      <c r="J23" s="7">
+        <v>60</v>
+      </c>
+      <c r="K23" s="7">
+        <v>70</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -2246,11 +3178,21 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="G24" s="8">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>56</v>
+      </c>
+      <c r="I24">
+        <v>78</v>
+      </c>
+      <c r="J24">
+        <v>77</v>
+      </c>
+      <c r="K24">
+        <v>83</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -2262,11 +3204,21 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>87</v>
+      </c>
+      <c r="J25">
+        <v>90</v>
+      </c>
+      <c r="K25">
+        <v>91</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="4"/>
@@ -2278,11 +3230,21 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="G26" s="8">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>98</v>
+      </c>
+      <c r="J26">
+        <v>97</v>
+      </c>
+      <c r="K26">
+        <v>99</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2294,11 +3256,21 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="G27" s="8">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>83</v>
+      </c>
+      <c r="I27">
+        <v>108</v>
+      </c>
+      <c r="J27">
+        <v>110</v>
+      </c>
+      <c r="K27">
+        <v>104</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2353,9 +3325,11 @@
       <c r="O30" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2371,49 +3345,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3"/>
-      <c r="B1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1"/>
+      <c r="J1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21">
-        <v>3</v>
-      </c>
-      <c r="E2" s="21">
-        <v>4</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18">
         <v>5</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <v>6</v>
       </c>
+      <c r="I2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>3</v>
+      </c>
+      <c r="M2" s="10">
+        <v>4</v>
+      </c>
+      <c r="N2" s="19">
+        <v>5</v>
+      </c>
+      <c r="O2" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -2422,9 +3426,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -2442,12 +3453,33 @@
       <c r="F4" s="3">
         <v>95</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="21">
         <v>100</v>
       </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>102</v>
+      </c>
+      <c r="K4" s="2">
+        <v>67</v>
+      </c>
+      <c r="L4" s="2">
+        <v>58</v>
+      </c>
+      <c r="M4" s="2">
+        <v>89</v>
+      </c>
+      <c r="N4" s="14">
+        <v>109</v>
+      </c>
+      <c r="O4" s="14">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -2468,9 +3500,30 @@
       <c r="G5" s="3">
         <v>161</v>
       </c>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" s="2">
+        <v>249</v>
+      </c>
+      <c r="L5" s="2">
+        <v>121</v>
+      </c>
+      <c r="M5" s="2">
+        <v>99</v>
+      </c>
+      <c r="N5" s="14">
+        <v>247</v>
+      </c>
+      <c r="O5" s="14">
+        <v>182</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="3">
@@ -2491,9 +3544,30 @@
       <c r="G6" s="3">
         <v>230</v>
       </c>
+      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>119</v>
+      </c>
+      <c r="K6" s="2">
+        <v>441</v>
+      </c>
+      <c r="L6" s="2">
+        <v>178</v>
+      </c>
+      <c r="M6" s="2">
+        <v>134</v>
+      </c>
+      <c r="N6" s="14">
+        <v>401</v>
+      </c>
+      <c r="O6" s="14">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
       <c r="B7" s="3">
@@ -2514,9 +3588,30 @@
       <c r="G7" s="3">
         <v>294</v>
       </c>
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>124</v>
+      </c>
+      <c r="K7" s="2">
+        <v>626</v>
+      </c>
+      <c r="L7" s="2">
+        <v>263</v>
+      </c>
+      <c r="M7" s="2">
+        <v>157</v>
+      </c>
+      <c r="N7" s="14">
+        <v>549</v>
+      </c>
+      <c r="O7" s="14">
+        <v>281</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="3">
@@ -2537,9 +3632,30 @@
       <c r="G8" s="3">
         <v>369</v>
       </c>
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" s="2">
+        <v>804</v>
+      </c>
+      <c r="L8" s="2">
+        <v>305</v>
+      </c>
+      <c r="M8" s="2">
+        <v>196</v>
+      </c>
+      <c r="N8" s="14">
+        <v>716</v>
+      </c>
+      <c r="O8" s="14">
+        <v>354</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="23">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
       <c r="B9" s="3">
@@ -2557,8 +3673,29 @@
       <c r="F9" s="3">
         <v>908</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <v>445</v>
+      </c>
+      <c r="I9" s="8">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>212</v>
+      </c>
+      <c r="K9" s="2">
+        <v>927</v>
+      </c>
+      <c r="L9" s="2">
+        <v>403</v>
+      </c>
+      <c r="M9" s="2">
+        <v>196</v>
+      </c>
+      <c r="N9" s="14">
+        <v>884</v>
+      </c>
+      <c r="O9" s="14">
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2567,229 +3704,347 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="I10" s="8">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>299</v>
+      </c>
+      <c r="K10">
+        <v>1049</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <v>196</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1056</v>
+      </c>
+      <c r="O10" s="14">
+        <v>400</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3"/>
-      <c r="B11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="8">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>385</v>
+      </c>
+      <c r="K11">
+        <v>1172</v>
+      </c>
+      <c r="L11">
+        <v>598</v>
+      </c>
+      <c r="M11">
+        <v>196</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1226</v>
+      </c>
+      <c r="O11" s="14">
+        <v>423</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2</v>
-      </c>
-      <c r="D12" s="21">
-        <v>3</v>
-      </c>
-      <c r="E12" s="21">
-        <v>4</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18">
         <v>5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>6</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="I12" s="8">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>472</v>
+      </c>
+      <c r="K12">
+        <v>1295</v>
+      </c>
+      <c r="L12">
+        <v>696</v>
+      </c>
+      <c r="M12">
+        <v>196</v>
+      </c>
+      <c r="N12" s="14">
+        <v>1396</v>
+      </c>
+      <c r="O12" s="3">
+        <v>445</v>
+      </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="24"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16">
+      <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14">
         <v>24</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>0</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>12</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>43</v>
       </c>
-      <c r="F13" s="16">
-        <v>2</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14">
         <v>1</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="I13" s="8">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>559</v>
+      </c>
+      <c r="K13">
+        <v>1417</v>
+      </c>
+      <c r="L13">
+        <v>793</v>
+      </c>
+      <c r="M13">
+        <v>196</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1566</v>
+      </c>
+      <c r="O13" s="3">
+        <v>469</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="23">
-        <v>2</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="20">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14">
         <v>27</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>0</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>25</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>64</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>6</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <v>2</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="23">
-        <v>3</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="A15" s="20">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14">
         <v>31</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>0</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>36</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>85</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>10</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="14">
         <v>4</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="I15"/>
+      <c r="J15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="23">
-        <v>4</v>
-      </c>
-      <c r="B16" s="16">
+      <c r="A16" s="20">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14">
         <v>32</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>0</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>52</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>106</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>15</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <v>4</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="I16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>2</v>
+      </c>
+      <c r="L16" s="10">
+        <v>3</v>
+      </c>
+      <c r="M16" s="10">
+        <v>4</v>
+      </c>
+      <c r="N16" s="19">
+        <v>5</v>
+      </c>
+      <c r="O16" s="16">
+        <v>6</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>5</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>35</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>0</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>60</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>131</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="14">
         <v>19</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>5</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="24"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>37</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>0</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>75</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>152</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <v>23</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>6</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>15</v>
+      </c>
+      <c r="M18" s="2">
+        <v>50</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="24"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="3"/>
@@ -2798,10 +4053,27 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="I19" s="8">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>25</v>
+      </c>
+      <c r="M19" s="2">
+        <v>60</v>
+      </c>
+      <c r="N19" s="3">
+        <v>8</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
@@ -2812,10 +4084,27 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="I20" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2">
+        <v>90</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
+        <v>5</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
@@ -2826,10 +4115,27 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="I21" s="8">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>56</v>
+      </c>
+      <c r="M21" s="2">
+        <v>103</v>
+      </c>
+      <c r="N21" s="3">
+        <v>15</v>
+      </c>
+      <c r="O21" s="3">
+        <v>5</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
@@ -2840,10 +4146,27 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="I22" s="9">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>35</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>59</v>
+      </c>
+      <c r="M22" s="2">
+        <v>124</v>
+      </c>
+      <c r="N22" s="3">
+        <v>19</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6</v>
+      </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
@@ -2854,18 +4177,52 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="I23" s="8">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2">
+        <v>53</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>72</v>
+      </c>
+      <c r="M23" s="7">
+        <v>124</v>
+      </c>
+      <c r="N23" s="14">
+        <v>20</v>
+      </c>
+      <c r="O23" s="3">
+        <v>6</v>
+      </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="24"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="I24" s="8">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>80</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>98</v>
+      </c>
+      <c r="M24">
+        <v>124</v>
+      </c>
+      <c r="N24" s="3">
+        <v>27</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
@@ -2876,10 +4233,27 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="I25" s="8">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>105</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>113</v>
+      </c>
+      <c r="M25">
+        <v>124</v>
+      </c>
+      <c r="N25" s="3">
+        <v>28</v>
+      </c>
+      <c r="O25" s="3">
+        <v>7</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
@@ -2890,10 +4264,27 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="I26" s="8">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>134</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>142</v>
+      </c>
+      <c r="M26">
+        <v>124</v>
+      </c>
+      <c r="N26" s="3">
+        <v>41</v>
+      </c>
+      <c r="O26" s="3">
+        <v>9</v>
+      </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
@@ -2904,10 +4295,27 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="I27" s="8">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>158</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>148</v>
+      </c>
+      <c r="M27">
+        <v>124</v>
+      </c>
+      <c r="N27" s="3">
+        <v>45</v>
+      </c>
+      <c r="O27" s="3">
+        <v>9</v>
+      </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
@@ -2971,7 +4379,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="24"/>
+      <c r="O32" s="21"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
@@ -3016,9 +4424,11 @@
       <c r="G37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B11:G11"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J15:M15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3035,42 +4445,64 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H18" sqref="H18:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3"/>
-      <c r="B1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1"/>
+      <c r="H1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21">
-        <v>3</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -3078,10 +4510,16 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -3097,11 +4535,24 @@
         <v>119</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>118</v>
+      </c>
+      <c r="I4" s="2">
+        <v>142</v>
+      </c>
+      <c r="J4" s="2">
+        <v>141</v>
+      </c>
+      <c r="K4" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -3117,10 +4568,24 @@
         <v>144</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>170</v>
+      </c>
+      <c r="I5" s="2">
+        <v>446</v>
+      </c>
+      <c r="J5" s="2">
+        <v>213</v>
+      </c>
+      <c r="K5" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="3">
@@ -3136,11 +4601,24 @@
         <v>163</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>233</v>
+      </c>
+      <c r="I6" s="2">
+        <v>762</v>
+      </c>
+      <c r="J6" s="2">
+        <v>330</v>
+      </c>
+      <c r="K6" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
       <c r="B7" s="3">
@@ -3155,11 +4633,25 @@
       <c r="E7" s="3">
         <v>188</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>300</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1070</v>
+      </c>
+      <c r="J7" s="2">
+        <v>411</v>
+      </c>
+      <c r="K7" s="2">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="3">
@@ -3174,11 +4666,25 @@
       <c r="E8" s="3">
         <v>209</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>347</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1392</v>
+      </c>
+      <c r="J8" s="2">
+        <v>522</v>
+      </c>
+      <c r="K8" s="2">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="23">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
       <c r="B9" s="3">
@@ -3194,8 +4700,21 @@
         <v>218</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="8">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>347</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1565</v>
+      </c>
+      <c r="J9" s="2">
+        <v>539</v>
+      </c>
+      <c r="K9" s="2">
+        <v>549</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3210,7 +4729,21 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="8">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>347</v>
+      </c>
+      <c r="I10">
+        <v>1738</v>
+      </c>
+      <c r="J10">
+        <v>556</v>
+      </c>
+      <c r="K10">
+        <v>859</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -3220,15 +4753,28 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3"/>
-      <c r="B11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="8">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>347</v>
+      </c>
+      <c r="I11">
+        <v>1911</v>
+      </c>
+      <c r="J11">
+        <v>573</v>
+      </c>
+      <c r="K11">
+        <v>1169</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -3237,23 +4783,37 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2</v>
-      </c>
-      <c r="D12" s="21">
-        <v>3</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18">
         <v>4</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="8">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>347</v>
+      </c>
+      <c r="I12">
+        <v>2085</v>
+      </c>
+      <c r="J12">
+        <v>591</v>
+      </c>
+      <c r="K12">
+        <v>1477</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3262,7 +4822,7 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3">
@@ -3277,8 +4837,21 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>347</v>
+      </c>
+      <c r="I13">
+        <v>2258</v>
+      </c>
+      <c r="J13">
+        <v>608</v>
+      </c>
+      <c r="K13">
+        <v>1787</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -3287,7 +4860,7 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
       <c r="B14" s="3">
@@ -3303,7 +4876,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -3312,7 +4889,7 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="3">
@@ -3328,7 +4905,13 @@
         <v>2</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15"/>
+      <c r="H15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -3337,7 +4920,7 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="3">
@@ -3353,7 +4936,21 @@
         <v>3</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>3</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -3362,7 +4959,7 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="3">
@@ -3378,7 +4975,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -3387,7 +4990,7 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
       <c r="B18" s="3">
@@ -3401,6 +5004,21 @@
       </c>
       <c r="E18" s="3">
         <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>47</v>
+      </c>
+      <c r="I18" s="2">
+        <v>57</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3415,7 +5033,21 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" s="2">
+        <v>188</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>6</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3427,7 +5059,21 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>84</v>
+      </c>
+      <c r="I20" s="2">
+        <v>310</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>8</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3439,7 +5085,21 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>114</v>
+      </c>
+      <c r="I21" s="2">
+        <v>452</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>14</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3451,11 +5111,42 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>134</v>
+      </c>
+      <c r="I22" s="2">
+        <v>568</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>19</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>134</v>
+      </c>
+      <c r="I23" s="2">
+        <v>634</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:17">
       <c r="B24" s="3"/>
@@ -3463,7 +5154,21 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="8">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>134</v>
+      </c>
+      <c r="I24">
+        <v>702</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="3"/>
@@ -3471,7 +5176,21 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>134</v>
+      </c>
+      <c r="I25">
+        <v>728</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="3"/>
@@ -3479,7 +5198,21 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="8">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>134</v>
+      </c>
+      <c r="I26">
+        <v>902</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="3"/>
@@ -3487,12 +5220,28 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="8">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>134</v>
+      </c>
+      <c r="I27">
+        <v>966</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
